--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/თერჯოლა.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/თერჯოლა.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661F345-93F3-4BAB-A1A5-CA3F9DDC33AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6C357-A77E-4D88-8E42-F02BBC869A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="315" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="თერჯოლა" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები თერჯოლის მუნიციპალიტეტში</t>
   </si>
@@ -110,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,11 +119,17 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
 </sst>
 </file>
@@ -131,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -146,49 +152,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -196,10 +202,10 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +216,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -267,36 +285,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -304,6 +307,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -311,7 +315,31 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -589,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +662,11 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
       <c r="A3" s="5"/>
@@ -669,19 +697,19 @@
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -689,445 +717,736 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="18">
         <v>25</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="18">
         <v>25</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="18">
         <v>25</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="18">
         <v>25</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="18">
         <v>25</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="18">
         <v>25</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="18">
         <v>25</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="18">
         <v>25</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="18">
         <v>25</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="18">
         <v>25</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="18">
         <v>25</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="18">
         <v>25</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="18">
         <v>25</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="18">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="19">
         <v>4780</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="19">
         <v>4489</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="19">
         <v>4205</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="19">
         <v>3980</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="19">
         <v>3827</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="19">
         <v>3720</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="19">
         <v>3675</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="19">
         <v>3679</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="19">
         <v>3654</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="19">
         <v>3620</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="19">
         <v>3657</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="19">
         <v>3773</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="19">
         <v>3760</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="19">
         <v>3706</v>
       </c>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="21">
+        <v>365</v>
+      </c>
+      <c r="D6" s="22">
+        <v>338</v>
+      </c>
+      <c r="E6" s="23">
+        <v>300</v>
+      </c>
+      <c r="F6" s="23">
+        <v>270</v>
+      </c>
+      <c r="G6" s="22">
+        <v>320</v>
+      </c>
+      <c r="H6" s="21">
+        <v>337</v>
+      </c>
+      <c r="I6" s="21">
+        <v>256</v>
+      </c>
+      <c r="J6" s="23">
+        <v>271</v>
+      </c>
+      <c r="K6" s="23">
+        <v>282</v>
+      </c>
+      <c r="L6" s="22">
+        <v>276</v>
+      </c>
+      <c r="M6" s="22">
+        <v>384</v>
+      </c>
+      <c r="N6" s="21">
+        <v>352</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="21">
+        <v>157</v>
+      </c>
+      <c r="D7" s="21">
+        <v>149</v>
+      </c>
+      <c r="E7" s="21">
+        <v>132</v>
+      </c>
+      <c r="F7" s="21">
+        <v>130</v>
+      </c>
+      <c r="G7" s="21">
+        <v>148</v>
+      </c>
+      <c r="H7" s="21">
+        <v>158</v>
+      </c>
+      <c r="I7" s="21">
+        <v>116</v>
+      </c>
+      <c r="J7" s="21">
+        <v>113</v>
+      </c>
+      <c r="K7" s="21">
+        <v>129</v>
+      </c>
+      <c r="L7" s="21">
+        <v>126</v>
+      </c>
+      <c r="M7" s="21">
+        <v>182</v>
+      </c>
+      <c r="N7" s="21">
+        <v>170</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21">
+        <v>208</v>
+      </c>
+      <c r="D8" s="21">
+        <v>189</v>
+      </c>
+      <c r="E8" s="21">
+        <v>168</v>
+      </c>
+      <c r="F8" s="21">
+        <v>140</v>
+      </c>
+      <c r="G8" s="21">
+        <v>172</v>
+      </c>
+      <c r="H8" s="21">
+        <v>179</v>
+      </c>
+      <c r="I8" s="21">
+        <v>140</v>
+      </c>
+      <c r="J8" s="21">
+        <v>158</v>
+      </c>
+      <c r="K8" s="21">
+        <v>153</v>
+      </c>
+      <c r="L8" s="21">
+        <v>150</v>
+      </c>
+      <c r="M8" s="21">
+        <v>202</v>
+      </c>
+      <c r="N8" s="21">
+        <v>182</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" ht="30">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="21">
+        <v>477</v>
+      </c>
+      <c r="D9" s="22">
+        <v>419</v>
+      </c>
+      <c r="E9" s="23">
+        <v>347</v>
+      </c>
+      <c r="F9" s="21">
+        <v>350</v>
+      </c>
+      <c r="G9" s="23">
+        <v>345</v>
+      </c>
+      <c r="H9" s="21">
+        <v>288</v>
+      </c>
+      <c r="I9" s="21">
+        <v>265</v>
+      </c>
+      <c r="J9" s="22">
+        <v>314</v>
+      </c>
+      <c r="K9" s="23">
+        <v>328</v>
+      </c>
+      <c r="L9" s="22">
+        <v>250</v>
+      </c>
+      <c r="M9" s="22">
+        <v>265</v>
+      </c>
+      <c r="N9" s="21">
+        <v>266</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="21">
+        <v>223</v>
+      </c>
+      <c r="D10" s="21">
+        <v>186</v>
+      </c>
+      <c r="E10" s="21">
+        <v>145</v>
+      </c>
+      <c r="F10" s="21">
+        <v>149</v>
+      </c>
+      <c r="G10" s="21">
+        <v>161</v>
+      </c>
+      <c r="H10" s="21">
+        <v>132</v>
+      </c>
+      <c r="I10" s="21">
+        <v>124</v>
+      </c>
+      <c r="J10" s="21">
+        <v>141</v>
+      </c>
+      <c r="K10" s="21">
+        <v>153</v>
+      </c>
+      <c r="L10" s="21">
+        <v>114</v>
+      </c>
+      <c r="M10" s="21">
+        <v>107</v>
+      </c>
+      <c r="N10" s="21">
+        <v>124</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="21">
+        <v>254</v>
+      </c>
+      <c r="D11" s="21">
+        <v>233</v>
+      </c>
+      <c r="E11" s="21">
+        <v>202</v>
+      </c>
+      <c r="F11" s="21">
+        <v>201</v>
+      </c>
+      <c r="G11" s="21">
+        <v>184</v>
+      </c>
+      <c r="H11" s="21">
+        <v>156</v>
+      </c>
+      <c r="I11" s="21">
+        <v>141</v>
+      </c>
+      <c r="J11" s="21">
+        <v>173</v>
+      </c>
+      <c r="K11" s="21">
+        <v>175</v>
+      </c>
+      <c r="L11" s="21">
+        <v>136</v>
+      </c>
+      <c r="M11" s="21">
+        <v>158</v>
+      </c>
+      <c r="N11" s="21">
+        <v>142</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" ht="30">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14">
-        <v>394</v>
-      </c>
-      <c r="D6" s="14">
-        <v>375</v>
-      </c>
-      <c r="E6" s="14">
-        <v>361</v>
-      </c>
-      <c r="F6" s="14">
-        <v>356</v>
-      </c>
-      <c r="G6" s="14">
-        <v>343</v>
-      </c>
-      <c r="H6" s="14">
-        <v>277</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="B12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="21">
+        <v>398</v>
+      </c>
+      <c r="D12" s="22">
+        <v>415</v>
+      </c>
+      <c r="E12" s="23">
+        <v>357</v>
+      </c>
+      <c r="F12" s="23">
+        <v>349</v>
+      </c>
+      <c r="G12" s="22">
+        <v>344</v>
+      </c>
+      <c r="H12" s="21">
+        <v>278</v>
+      </c>
+      <c r="I12" s="21">
         <v>297</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J12" s="23">
         <v>298</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K12" s="23">
         <v>254</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L12" s="22">
         <v>247</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M12" s="22">
         <v>303</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N12" s="19">
         <v>314</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="O12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11">
-        <v>205</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="B13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="21">
+        <v>210</v>
+      </c>
+      <c r="D13" s="21">
+        <v>194</v>
+      </c>
+      <c r="E13" s="21">
+        <v>168</v>
+      </c>
+      <c r="F13" s="21">
+        <v>177</v>
+      </c>
+      <c r="G13" s="21">
+        <v>179</v>
+      </c>
+      <c r="H13" s="21">
+        <v>124</v>
+      </c>
+      <c r="I13" s="21">
+        <v>131</v>
+      </c>
+      <c r="J13" s="21">
+        <v>151</v>
+      </c>
+      <c r="K13" s="21">
+        <v>123</v>
+      </c>
+      <c r="L13" s="21">
+        <v>120</v>
+      </c>
+      <c r="M13" s="21">
+        <v>147</v>
+      </c>
+      <c r="N13" s="19">
+        <v>155</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="21">
+        <v>188</v>
+      </c>
+      <c r="D14" s="21">
+        <v>221</v>
+      </c>
+      <c r="E14" s="21">
+        <v>189</v>
+      </c>
+      <c r="F14" s="21">
         <v>172</v>
       </c>
-      <c r="E7" s="11">
-        <v>171</v>
-      </c>
-      <c r="F7" s="11">
-        <v>182</v>
-      </c>
-      <c r="G7" s="11">
-        <v>179</v>
-      </c>
-      <c r="H7" s="11">
-        <v>124</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="G14" s="21">
+        <v>165</v>
+      </c>
+      <c r="H14" s="21">
+        <v>154</v>
+      </c>
+      <c r="I14" s="21">
+        <v>166</v>
+      </c>
+      <c r="J14" s="21">
+        <v>147</v>
+      </c>
+      <c r="K14" s="21">
         <v>131</v>
       </c>
-      <c r="J7" s="11">
-        <v>151</v>
-      </c>
-      <c r="K7" s="11">
-        <v>124</v>
-      </c>
-      <c r="L7" s="11">
-        <v>120</v>
-      </c>
-      <c r="M7" s="11">
-        <v>147</v>
-      </c>
-      <c r="N7" s="11">
-        <v>155</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11">
-        <v>189</v>
-      </c>
-      <c r="D8" s="11">
-        <v>203</v>
-      </c>
-      <c r="E8" s="11">
-        <v>190</v>
-      </c>
-      <c r="F8" s="11">
-        <v>174</v>
-      </c>
-      <c r="G8" s="11">
-        <v>164</v>
-      </c>
-      <c r="H8" s="11">
-        <v>153</v>
-      </c>
-      <c r="I8" s="11">
-        <v>166</v>
-      </c>
-      <c r="J8" s="11">
-        <v>147</v>
-      </c>
-      <c r="K8" s="11">
-        <v>130</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="L14" s="21">
         <v>127</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M14" s="21">
         <v>156</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N14" s="19">
         <v>159</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="O14" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30.75" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="24">
-        <v>10.76002949449709</v>
-      </c>
-      <c r="D9" s="24">
-        <v>10.347253838831174</v>
-      </c>
-      <c r="E9" s="24">
-        <v>10.051510510928582</v>
-      </c>
-      <c r="F9" s="24">
-        <v>9.9650104968509439</v>
-      </c>
-      <c r="G9" s="24">
-        <v>9.6884444821060374</v>
-      </c>
-      <c r="H9" s="24">
-        <v>7.9491484080180221</v>
-      </c>
-      <c r="I9" s="24">
-        <v>8.6727989487516428</v>
-      </c>
-      <c r="J9" s="24">
-        <v>8.8621899720454422</v>
-      </c>
-      <c r="K9" s="24">
-        <v>7.7049080871200628</v>
-      </c>
-      <c r="L9" s="24">
-        <v>7.6641429812585322</v>
-      </c>
-      <c r="M9" s="24">
-        <v>9.576485461441214</v>
-      </c>
-      <c r="N9" s="24">
+      <c r="B15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="24">
+        <v>17.49375715685057</v>
+      </c>
+      <c r="D15" s="24">
+        <v>19.434776555756649</v>
+      </c>
+      <c r="E15" s="24">
+        <v>14.499650104968509</v>
+      </c>
+      <c r="F15" s="24">
+        <v>16.608761969324632</v>
+      </c>
+      <c r="G15" s="24">
+        <v>16.300058829437678</v>
+      </c>
+      <c r="H15" s="24">
+        <v>13.461819243685211</v>
+      </c>
+      <c r="I15" s="24">
+        <v>15.256051864628562</v>
+      </c>
+      <c r="J15" s="24">
+        <v>13.741430564824364</v>
+      </c>
+      <c r="K15" s="24">
+        <v>13.466550825369243</v>
+      </c>
+      <c r="L15" s="24">
+        <v>15.518331226295828</v>
+      </c>
+      <c r="M15" s="24">
+        <v>16.815418445220541</v>
+      </c>
+      <c r="N15" s="24">
         <v>10.375534885257819</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="O15" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="19">
         <v>644</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I16" s="19">
         <v>646</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J16" s="19">
         <v>639</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K16" s="19">
         <v>586</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L16" s="19">
         <v>577</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M16" s="19">
         <v>581</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N16" s="19">
         <v>576</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O16" s="20">
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="19">
         <v>522</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I17" s="19">
         <v>527</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J17" s="19">
         <v>524</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K17" s="19">
         <v>487</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L17" s="19">
         <v>488</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M17" s="19">
         <v>495</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N17" s="19">
         <v>487</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O17" s="20">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="17" t="s">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="B18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="26">
         <v>122</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I18" s="26">
         <v>119</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J18" s="26">
         <v>115</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K18" s="26">
         <v>99</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L18" s="26">
         <v>89</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M18" s="26">
         <v>86</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N18" s="26">
         <v>89</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O18" s="25">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="22" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="23" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
